--- a/pages/bang-luong.xlsx
+++ b/pages/bang-luong.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -41,10 +41,58 @@
     <t>Ngày chấm công</t>
   </si>
   <si>
-    <t>ML1744812402</t>
-  </si>
-  <si>
-    <t>Trần Ngọc Anh</t>
+    <t>ML1744812607</t>
+  </si>
+  <si>
+    <t>Hứa Thất An</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>7,750,000vnđ</t>
+  </si>
+  <si>
+    <t>9,761,250vnđ</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>ML1744842479</t>
+  </si>
+  <si>
+    <t>Bùi Thị Nữ Vương</t>
+  </si>
+  <si>
+    <t>Trợ lý giám đốc</t>
+  </si>
+  <si>
+    <t>8,400,000vnđ</t>
+  </si>
+  <si>
+    <t>8,718,000vnđ</t>
+  </si>
+  <si>
+    <t>ML1744842674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dương Minh Quân	</t>
+  </si>
+  <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
+    <t>7,560,000vnđ</t>
+  </si>
+  <si>
+    <t>9,636,200vnđ</t>
+  </si>
+  <si>
+    <t>ML1744900813</t>
+  </si>
+  <si>
+    <t>Liễu Như Yên</t>
   </si>
   <si>
     <t>Nhân viên</t>
@@ -53,25 +101,10 @@
     <t>5,750,000vnđ</t>
   </si>
   <si>
-    <t>5,246,250vnđ</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>ML1744812607</t>
-  </si>
-  <si>
-    <t>Hứa Thất An</t>
-  </si>
-  <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
-    <t>7,750,000vnđ</t>
-  </si>
-  <si>
-    <t>9,761,250vnđ</t>
+    <t>6,146,250vnđ</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
   </si>
 </sst>
 </file>
@@ -436,18 +469,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.282" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.282" bestFit="true" customWidth="true" style="0"/>
@@ -523,13 +556,65 @@
         <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
